--- a/biology/Médecine/Onglée/Onglée.xlsx
+++ b/biology/Médecine/Onglée/Onglée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ongl%C3%A9e</t>
+          <t>Onglée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’onglée est une conséquence douloureuse mais bénigne du froid sur les extrémités des doigts. L'onglée est une affection présente chez les alpinistes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ongl%C3%A9e</t>
+          <t>Onglée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un grand froid ou une brusque baisse de la température entraîne un rétrécissement des vaisseaux sanguins localisés à la pointe des doigts. La douleur apparaît lorsque la hausse de la température permet le retour du sang, de manière brutale, dans ces extrémités, provoquant alors engourdissement et douleur[1]. Cette phase peut s'accompagner de nausées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un grand froid ou une brusque baisse de la température entraîne un rétrécissement des vaisseaux sanguins localisés à la pointe des doigts. La douleur apparaît lorsque la hausse de la température permet le retour du sang, de manière brutale, dans ces extrémités, provoquant alors engourdissement et douleur. Cette phase peut s'accompagner de nausées.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ongl%C3%A9e</t>
+          <t>Onglée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
